--- a/published-data/fonds-solidarite/fds-2020-12-27/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-27/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -38398,10 +38398,10 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D793" t="n">
-        <v>7307542</v>
+        <v>7311758</v>
       </c>
       <c r="E793" t="inlineStr">
         <is>
